--- a/web/WEB-INF/download/packetInfo.xlsx
+++ b/web/WEB-INF/download/packetInfo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B812FC-D038-4CDB-A95D-EA3F455F45BC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AA370A-4379-4A77-B152-4034AA9A1974}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32130" yWindow="2445" windowWidth="21600" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32370" yWindow="1815" windowWidth="21600" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>所属仓库ID</t>
-  </si>
-  <si>
     <t>子运单号</t>
   </si>
   <si>
     <t>包裹运单号</t>
+  </si>
+  <si>
+    <t>包裹ID号</t>
   </si>
 </sst>
 </file>
@@ -66,8 +66,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -409,25 +410,25 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
